--- a/dev/gouden_draak/public/salesreport.xlsx
+++ b/dev/gouden_draak/public/salesreport.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="7">
   <si>
     <t>Date</t>
   </si>
@@ -33,6 +33,9 @@
   </si>
   <si>
     <t>2024-08-23</t>
+  </si>
+  <si>
+    <t>Orders</t>
   </si>
 </sst>
 </file>
@@ -372,7 +375,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -414,6 +417,11 @@
         <v>790.0</v>
       </c>
     </row>
+    <row r="3" spans="1:5">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/dev/gouden_draak/public/salesreport.xlsx
+++ b/dev/gouden_draak/public/salesreport.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="14">
   <si>
     <t>Date</t>
   </si>
@@ -32,10 +32,31 @@
     <t>Total Profit</t>
   </si>
   <si>
-    <t>2024-08-23</t>
+    <t>2024-08-27</t>
   </si>
   <si>
     <t>Orders</t>
+  </si>
+  <si>
+    <t>Dish</t>
+  </si>
+  <si>
+    <t>Amount</t>
+  </si>
+  <si>
+    <t>Price</t>
+  </si>
+  <si>
+    <t>Total Price</t>
+  </si>
+  <si>
+    <t>Kippensoep</t>
+  </si>
+  <si>
+    <t>Pekingsoep</t>
+  </si>
+  <si>
+    <t>Loempia Compleet</t>
   </si>
 </sst>
 </file>
@@ -375,13 +396,20 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col min="1" max="1" width="12.854" bestFit="true" customWidth="true" style="0"/>
+    <col min="2" max="2" width="19.995" bestFit="true" customWidth="true" style="0"/>
+    <col min="3" max="3" width="24.708" bestFit="true" customWidth="true" style="0"/>
+    <col min="4" max="4" width="11.711" bestFit="true" customWidth="true" style="0"/>
+    <col min="5" max="5" width="15.282" bestFit="true" customWidth="true" style="0"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" t="s">
@@ -405,21 +433,89 @@
         <v>5</v>
       </c>
       <c r="B2">
-        <v>1000.0</v>
+        <v>22.9</v>
       </c>
       <c r="C2">
-        <v>1210.0</v>
+        <v>21.01</v>
       </c>
       <c r="D2">
-        <v>210.0</v>
+        <v>2.06</v>
       </c>
       <c r="E2">
-        <v>790.0</v>
+        <v>22.9</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
         <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5">
+        <v>2.9</v>
+      </c>
+      <c r="E5">
+        <v>2.9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6">
+        <v>2</v>
+      </c>
+      <c r="D6">
+        <v>3.8</v>
+      </c>
+      <c r="E6">
+        <v>7.6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7">
+        <v>2</v>
+      </c>
+      <c r="D7">
+        <v>6.2</v>
+      </c>
+      <c r="E7">
+        <v>12.4</v>
       </c>
     </row>
   </sheetData>
